--- a/src/analysis_examples/circadb/results_jtk/cosinor_10589913_dync1li1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10589913_dync1li1_.xlsx
@@ -589,21 +589,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.20895015070190603, 0.31601563180677705]</t>
+          <t>[0.20945576923744044, 0.3155100132712426]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.375727531893745e-09</v>
+        <v>1.163572793672074e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.375727531893745e-09</v>
+        <v>1.163572793672074e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.7421580242714629</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.9434212172942322, -0.5408948312486936]</t>
+          <t>[-0.9434212172942331, -0.5408948312486928]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5333975722227667, 0.5883304571607232]</t>
+          <t>[0.533434012252286, 0.5882940171312039]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>3.306126126126273</v>
       </c>
       <c r="X2" t="n">
-        <v>2.409549549549657</v>
+        <v>2.409549549549654</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.202702702702888</v>
+        <v>4.202702702702893</v>
       </c>
     </row>
   </sheetData>
